--- a/data/spring-cloud-shop/shop-goods-api_structure.xlsx
+++ b/data/spring-cloud-shop/shop-goods-api_structure.xlsx
@@ -783,15 +783,15 @@
     <t>goodsClassService</t>
   </si>
   <si>
+    <t>goodsClassId</t>
+  </si>
+  <si>
     <t>keyword</t>
   </si>
   <si>
     <t>goodsName</t>
   </si>
   <si>
-    <t>goodsClassId</t>
-  </si>
-  <si>
     <t>userId</t>
   </si>
   <si>
@@ -804,15 +804,15 @@
     <t>sort</t>
   </si>
   <si>
+    <t>bannerClient</t>
+  </si>
+  <si>
+    <t>quick.pager.shop.activity.client.BannerClient</t>
+  </si>
+  <si>
     <t>goodsClassMapper</t>
   </si>
   <si>
-    <t>bannerClient</t>
-  </si>
-  <si>
-    <t>quick.pager.shop.activity.client.BannerClient</t>
-  </si>
-  <si>
     <t>log</t>
   </si>
   <si>
@@ -822,15 +822,15 @@
     <t>goodsSkuMapper</t>
   </si>
   <si>
+    <t>goodsSkuStockMapper</t>
+  </si>
+  <si>
     <t>goodsSpuMapper</t>
   </si>
   <si>
     <t>goodsSkuImageMapper</t>
   </si>
   <si>
-    <t>goodsSkuStockMapper</t>
-  </si>
-  <si>
     <t>SKU_PREFIX</t>
   </si>
   <si>
@@ -840,15 +840,15 @@
     <t>goodsService</t>
   </si>
   <si>
+    <t>goodsMapper</t>
+  </si>
+  <si>
     <t>redisTemplate</t>
   </si>
   <si>
     <t>org.springframework.data.redis.core.RedisTemplate</t>
   </si>
   <si>
-    <t>goodsMapper</t>
-  </si>
-  <si>
     <t>appGoodsSkuService</t>
   </si>
   <si>
@@ -861,76 +861,76 @@
     <t>skuId</t>
   </si>
   <si>
+    <t>goodsId</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>goodsId</t>
+    <t>discountAmount</t>
+  </si>
+  <si>
+    <t>skuCode</t>
+  </si>
+  <si>
+    <t>skuName</t>
   </si>
   <si>
     <t>description</t>
   </si>
   <si>
+    <t>skuAmount</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
     <t>weight</t>
   </si>
   <si>
-    <t>skuCode</t>
-  </si>
-  <si>
-    <t>discountAmount</t>
-  </si>
-  <si>
-    <t>skuName</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>skuAmount</t>
+    <t>className</t>
   </si>
   <si>
     <t>spuId</t>
   </si>
   <si>
-    <t>className</t>
-  </si>
-  <si>
     <t>sequence</t>
   </si>
   <si>
     <t>publishStatus</t>
   </si>
   <si>
+    <t>goodsType</t>
+  </si>
+  <si>
+    <t>goodsState</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
     <t>beginTime</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>endTime</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>goodsState</t>
-  </si>
-  <si>
-    <t>goodsType</t>
-  </si>
-  <si>
-    <t>unit</t>
+    <t>spuName</t>
   </si>
   <si>
     <t>spuImage</t>
   </si>
   <si>
-    <t>spuName</t>
-  </si>
-  <si>
     <t>images</t>
   </si>
   <si>
+    <t>SEARCH_CLASSIFICATION_EVENT</t>
+  </si>
+  <si>
     <t>SEARCH_GOODS_SEARCH_EVENT</t>
-  </si>
-  <si>
-    <t>SEARCH_CLASSIFICATION_EVENT</t>
   </si>
   <si>
     <t>GREETING</t>
@@ -14487,7 +14487,7 @@
         <v>43</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -14515,7 +14515,7 @@
         <v>43</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -14571,7 +14571,7 @@
         <v>43</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>199</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10">
@@ -14579,13 +14579,13 @@
         <v>39</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>262</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11">
@@ -14607,13 +14607,13 @@
         <v>61</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>4</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13">
@@ -14621,13 +14621,13 @@
         <v>61</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>83</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -14635,13 +14635,13 @@
         <v>61</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15">
@@ -14649,13 +14649,13 @@
         <v>61</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>199</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
@@ -14669,7 +14669,7 @@
         <v>43</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17">
@@ -14725,7 +14725,7 @@
         <v>43</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>273</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
@@ -14733,7 +14733,7 @@
         <v>84</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>43</v>
@@ -14747,13 +14747,13 @@
         <v>84</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>168</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23">
@@ -14761,13 +14761,13 @@
         <v>84</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>182</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24">
@@ -14775,13 +14775,13 @@
         <v>84</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>199</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25">
@@ -14831,7 +14831,7 @@
         <v>99</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>43</v>
@@ -14873,13 +14873,13 @@
         <v>112</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>13</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32">
@@ -14887,13 +14887,13 @@
         <v>112</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>258</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
@@ -14907,7 +14907,7 @@
         <v>43</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
@@ -14915,13 +14915,13 @@
         <v>69</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>26</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35">
@@ -14929,7 +14929,7 @@
         <v>69</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>43</v>
@@ -14943,13 +14943,13 @@
         <v>69</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>128</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -14957,13 +14957,13 @@
         <v>69</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>258</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
@@ -14971,13 +14971,13 @@
         <v>69</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>13</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39">
@@ -14985,13 +14985,13 @@
         <v>69</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>128</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
@@ -14999,13 +14999,13 @@
         <v>69</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41">
@@ -15013,13 +15013,13 @@
         <v>69</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>49</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42">
@@ -15027,13 +15027,13 @@
         <v>69</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>128</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43">
@@ -15047,7 +15047,7 @@
         <v>43</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -15075,7 +15075,7 @@
         <v>43</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
@@ -15111,7 +15111,7 @@
         <v>146</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>43</v>
@@ -15125,13 +15125,13 @@
         <v>146</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
@@ -15139,13 +15139,13 @@
         <v>146</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>26</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51">
@@ -15153,13 +15153,13 @@
         <v>146</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>144</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
@@ -15173,7 +15173,7 @@
         <v>43</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53">
@@ -15187,7 +15187,7 @@
         <v>43</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>161</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54">
@@ -15195,13 +15195,13 @@
         <v>72</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>26</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55">
@@ -15209,13 +15209,13 @@
         <v>72</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>144</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56">
@@ -15223,13 +15223,13 @@
         <v>72</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>49</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57">
@@ -15243,7 +15243,7 @@
         <v>43</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>49</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58">
@@ -15257,7 +15257,7 @@
         <v>43</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>144</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59">
@@ -15265,13 +15265,13 @@
         <v>72</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
@@ -15279,7 +15279,7 @@
         <v>72</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>43</v>
@@ -15293,13 +15293,13 @@
         <v>72</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>258</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62">
@@ -15321,13 +15321,13 @@
         <v>47</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>13</v>
+        <v>258</v>
       </c>
     </row>
     <row r="64">
@@ -15335,7 +15335,7 @@
         <v>47</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>43</v>
@@ -15349,13 +15349,13 @@
         <v>47</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>144</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
@@ -15363,13 +15363,13 @@
         <v>47</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>258</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67">
@@ -15377,13 +15377,13 @@
         <v>79</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>258</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
@@ -15419,13 +15419,13 @@
         <v>79</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>26</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71">
@@ -15489,13 +15489,13 @@
         <v>76</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>26</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76">
@@ -15503,13 +15503,13 @@
         <v>76</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>144</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77">
@@ -15517,13 +15517,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>26</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78">
@@ -15531,13 +15531,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>258</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
@@ -15587,13 +15587,13 @@
         <v>205</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83">
@@ -15601,13 +15601,13 @@
         <v>205</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84">
@@ -15615,13 +15615,13 @@
         <v>205</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85">
@@ -15629,13 +15629,13 @@
         <v>211</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>264</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -15643,13 +15643,13 @@
         <v>211</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87">
@@ -15657,13 +15657,13 @@
         <v>211</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>182</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88">
@@ -15671,13 +15671,13 @@
         <v>211</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>4</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
